--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/device_master_h.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/device_master_h.xlsx
@@ -110,10 +110,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -204,16 +203,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -236,2425 +235,2424 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J:J"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="8.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="s">
+      <c r="J2" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="J3" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="s">
+      <c r="J3" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3001</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="J4" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="s">
+      <c r="J4" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="J5" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="s">
+      <c r="J5" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="J6" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="s">
+      <c r="J6" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>3001</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="J7" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="s">
+      <c r="J7" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>1002</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="J8" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="s">
+      <c r="J8" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="J9" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="s">
+      <c r="J9" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>3002</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="J10" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="s">
+      <c r="J10" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>1002</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="0" t="n">
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="J11" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="s">
+      <c r="J11" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="0" t="n">
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="J12" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="s">
+      <c r="J12" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>3002</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="J13" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="s">
+      <c r="J13" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1003</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="0" t="n">
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="J14" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="s">
+      <c r="J14" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="0" t="n">
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="J15" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="s">
+      <c r="J15" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>3003</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="0" t="n">
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="J16" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K16" s="0" t="s">
+      <c r="J16" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>1003</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="0" t="n">
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="J17" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="0" t="s">
+      <c r="J17" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="J18" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K18" s="0" t="s">
+      <c r="J18" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>3003</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="0" t="n">
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="J19" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K19" s="0" t="s">
+      <c r="J19" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>1004</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="0" t="n">
+      <c r="D20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="J20" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K20" s="0" t="s">
+      <c r="J20" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="0" t="n">
+      <c r="D21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="J21" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="0" t="s">
+      <c r="J21" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>3004</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="0" t="n">
+      <c r="D22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="J22" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K22" s="0" t="s">
+      <c r="J22" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>1004</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="0" t="n">
+      <c r="D23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="J23" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K23" s="0" t="s">
+      <c r="J23" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="0" t="n">
+      <c r="D24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="J24" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K24" s="0" t="s">
+      <c r="J24" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>3004</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="0" t="n">
+      <c r="D25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="J25" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K25" s="0" t="s">
+      <c r="J25" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>1005</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="0" t="n">
+      <c r="D26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="H26" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="J26" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K26" s="0" t="s">
+      <c r="J26" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="0" t="n">
+      <c r="D27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="J27" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K27" s="0" t="s">
+      <c r="J27" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>3005</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="0" t="n">
+      <c r="D28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="J28" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K28" s="0" t="s">
+      <c r="J28" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>1005</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="0" t="n">
+      <c r="D29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="J29" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K29" s="0" t="s">
+      <c r="J29" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="0" t="n">
+      <c r="D30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I30" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="J30" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K30" s="0" t="s">
+      <c r="J30" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>3005</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="0" t="n">
+      <c r="D31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="J31" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K31" s="0" t="s">
+      <c r="J31" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>1006</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="0" t="n">
+      <c r="D32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I32" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="J32" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K32" s="0" t="s">
+      <c r="J32" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="0" t="n">
+      <c r="D33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I33" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="J33" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K33" s="0" t="s">
+      <c r="J33" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>3006</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="0" t="n">
+      <c r="D34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I34" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="J34" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K34" s="0" t="s">
+      <c r="J34" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>1006</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="0" t="n">
+      <c r="D35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="H35" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="J35" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K35" s="0" t="s">
+      <c r="J35" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="0" t="n">
+      <c r="D36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I36" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="J36" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K36" s="0" t="s">
+      <c r="J36" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>3006</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="0" t="n">
+      <c r="D37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I37" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="J37" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K37" s="0" t="s">
+      <c r="J37" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>1007</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="0" t="n">
+      <c r="D38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I38" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="J38" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K38" s="0" t="s">
+      <c r="J38" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="0" t="n">
+      <c r="D39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G39" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I39" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="J39" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K39" s="0" t="s">
+      <c r="J39" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>3007</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="0" t="n">
+      <c r="D40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="H40" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I40" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="J40" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K40" s="0" t="s">
+      <c r="J40" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>1007</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="0" t="n">
+      <c r="D41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="H41" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I41" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="J41" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K41" s="0" t="s">
+      <c r="J41" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="0" t="n">
+      <c r="D42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H42" s="0" t="s">
+      <c r="H42" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I42" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="J42" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K42" s="0" t="s">
+      <c r="J42" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>3007</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="0" t="n">
+      <c r="D43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="H43" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I43" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="J43" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K43" s="0" t="s">
+      <c r="J43" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>1008</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="0" t="n">
+      <c r="D44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H44" s="0" t="s">
+      <c r="H44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I44" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="J44" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K44" s="0" t="s">
+      <c r="J44" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="0" t="n">
+      <c r="D45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="H45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="J45" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K45" s="0" t="s">
+      <c r="J45" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>3008</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="0" t="n">
+      <c r="D46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="H46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I46" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="J46" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K46" s="0" t="s">
+      <c r="J46" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>1008</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="0" t="n">
+      <c r="D47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="H47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I47" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="J47" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K47" s="0" t="s">
+      <c r="J47" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="0" t="n">
+      <c r="D48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G48" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H48" s="0" t="s">
+      <c r="H48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I48" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="J48" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K48" s="0" t="s">
+      <c r="J48" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>3008</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="0" t="n">
+      <c r="D49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G49" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H49" s="0" t="s">
+      <c r="H49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I49" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="J49" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K49" s="0" t="s">
+      <c r="J49" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>1009</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="0" t="n">
+      <c r="D50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H50" s="0" t="s">
+      <c r="H50" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I50" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="J50" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K50" s="0" t="s">
+      <c r="J50" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="0" t="n">
+      <c r="D51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H51" s="0" t="s">
+      <c r="H51" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I51" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="J51" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K51" s="0" t="s">
+      <c r="J51" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>3009</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="0" t="n">
+      <c r="D52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G52" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H52" s="0" t="s">
+      <c r="H52" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I52" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="J52" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K52" s="0" t="s">
+      <c r="J52" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>1009</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="0" t="n">
+      <c r="D53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H53" s="0" t="s">
+      <c r="H53" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I53" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="J53" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K53" s="0" t="s">
+      <c r="J53" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="0" t="n">
+      <c r="D54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G54" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H54" s="0" t="s">
+      <c r="H54" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I54" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="J54" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K54" s="0" t="s">
+      <c r="J54" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>3009</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="0" t="n">
+      <c r="D55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H55" s="0" t="s">
+      <c r="H55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I55" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="J55" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K55" s="0" t="s">
+      <c r="J55" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>1010</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="0" t="n">
+      <c r="D56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G56" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H56" s="0" t="s">
+      <c r="H56" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="J56" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K56" s="0" t="s">
+      <c r="J56" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="0" t="n">
+      <c r="D57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G57" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H57" s="0" t="s">
+      <c r="H57" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I57" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="J57" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K57" s="0" t="s">
+      <c r="J57" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>3010</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="0" t="n">
+      <c r="D58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G58" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H58" s="0" t="s">
+      <c r="H58" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I58" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="J58" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K58" s="0" t="s">
+      <c r="J58" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>1010</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="0" t="n">
+      <c r="D59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G59" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H59" s="0" t="s">
+      <c r="H59" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I59" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="J59" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K59" s="0" t="s">
+      <c r="J59" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="0" t="n">
+      <c r="D60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G60" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H60" s="0" t="s">
+      <c r="H60" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I60" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="J60" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K60" s="0" t="s">
+      <c r="J60" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>3010</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="0" t="n">
+      <c r="D61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G61" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H61" s="0" t="s">
+      <c r="H61" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I61" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="J61" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K61" s="0" t="s">
+      <c r="J61" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>1011</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="0" t="n">
+      <c r="D62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G62" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H62" s="0" t="s">
+      <c r="H62" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I62" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="J62" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K62" s="0" t="s">
+      <c r="J62" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="0" t="n">
+      <c r="D63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G63" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H63" s="0" t="s">
+      <c r="H63" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I63" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="J63" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K63" s="0" t="s">
+      <c r="J63" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>3011</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" s="0" t="n">
+      <c r="D64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G64" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H64" s="0" t="s">
+      <c r="H64" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I64" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="J64" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K64" s="0" t="s">
+      <c r="J64" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>1011</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="0" t="n">
+      <c r="D65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G65" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H65" s="0" t="s">
+      <c r="H65" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I65" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="J65" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K65" s="0" t="s">
+      <c r="J65" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="0" t="n">
+      <c r="D66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G66" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H66" s="0" t="s">
+      <c r="H66" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I66" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="J66" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K66" s="0" t="s">
+      <c r="J66" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>3011</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="0" t="n">
+      <c r="D67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G67" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H67" s="0" t="s">
+      <c r="H67" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I67" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="J67" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K67" s="0" t="s">
+      <c r="J67" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>1012</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="0" t="n">
+      <c r="D68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G68" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H68" s="0" t="s">
+      <c r="H68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I68" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="J68" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K68" s="0" t="s">
+      <c r="J68" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="0" t="n">
+      <c r="D69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G69" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H69" s="0" t="s">
+      <c r="H69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I69" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="J69" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K69" s="0" t="s">
+      <c r="J69" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>3012</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="0" t="n">
+      <c r="D70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G70" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H70" s="0" t="s">
+      <c r="H70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I70" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="J70" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K70" s="0" t="s">
+      <c r="J70" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>1012</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="0" t="n">
+      <c r="D71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="4" t="n">
         <v>3456789012</v>
       </c>
       <c r="G71" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="H71" s="0" t="s">
+      <c r="H71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I71" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="J71" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K71" s="0" t="s">
+      <c r="J71" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="0" t="n">
+      <c r="D72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="4" t="n">
         <v>1234567890</v>
       </c>
       <c r="G72" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="H72" s="0" t="s">
+      <c r="H72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I72" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="J72" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K72" s="0" t="s">
+      <c r="J72" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>3012</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="0" t="n">
+      <c r="D73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="4" t="n">
         <v>2345678901</v>
       </c>
       <c r="G73" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="H73" s="0" t="s">
+      <c r="H73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I73" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="J73" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K73" s="0" t="s">
+      <c r="J73" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>15</v>
       </c>
     </row>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/device_master_h.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/device_master_h.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="29">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">RBT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">now()</t>
@@ -235,7 +238,7 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J:J"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -305,12 +308,11 @@
       <c r="I2" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -321,7 +323,7 @@
         <v>2001</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>13</v>
@@ -338,12 +340,11 @@
       <c r="I3" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="J3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -354,7 +355,7 @@
         <v>3001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
@@ -371,17 +372,16 @@
       <c r="I4" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="J4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1001</v>
@@ -404,23 +404,22 @@
       <c r="I5" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>2001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
@@ -437,23 +436,22 @@
       <c r="I6" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>3001</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>13</v>
@@ -470,12 +468,11 @@
       <c r="I7" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="J7" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -498,17 +495,16 @@
         <v>327</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="J8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -519,7 +515,7 @@
         <v>2002</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>13</v>
@@ -531,17 +527,16 @@
         <v>165</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="J9" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -552,7 +547,7 @@
         <v>3002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>13</v>
@@ -564,22 +559,21 @@
         <v>736</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="J10" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J10" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>1002</v>
@@ -597,28 +591,27 @@
         <v>327</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="J11" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>2002</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>13</v>
@@ -630,28 +623,27 @@
         <v>165</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="J12" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J12" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>3002</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>13</v>
@@ -663,17 +655,16 @@
         <v>736</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="J13" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J13" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -696,17 +687,16 @@
         <v>327</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="J14" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J14" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -717,7 +707,7 @@
         <v>2003</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>13</v>
@@ -729,17 +719,16 @@
         <v>165</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="J15" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J15" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -750,7 +739,7 @@
         <v>3003</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
@@ -762,22 +751,21 @@
         <v>736</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="J16" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J16" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>1003</v>
@@ -795,28 +783,27 @@
         <v>327</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="J17" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J17" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>2003</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>13</v>
@@ -828,28 +815,27 @@
         <v>165</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="J18" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J18" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>3003</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>13</v>
@@ -861,17 +847,16 @@
         <v>736</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="J19" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J19" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -899,12 +884,11 @@
       <c r="I20" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="J20" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J20" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -915,7 +899,7 @@
         <v>2004</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>13</v>
@@ -932,12 +916,11 @@
       <c r="I21" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="J21" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J21" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,7 +931,7 @@
         <v>3004</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>13</v>
@@ -965,17 +948,16 @@
       <c r="I22" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="J22" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J22" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>1004</v>
@@ -998,23 +980,22 @@
       <c r="I23" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="J23" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J23" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>2004</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>13</v>
@@ -1031,23 +1012,22 @@
       <c r="I24" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="J24" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J24" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>3004</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>13</v>
@@ -1064,12 +1044,11 @@
       <c r="I25" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="J25" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J25" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1092,17 +1071,16 @@
         <v>327</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="J26" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J26" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1113,7 +1091,7 @@
         <v>2005</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>13</v>
@@ -1125,17 +1103,16 @@
         <v>165</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="J27" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J27" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1146,7 +1123,7 @@
         <v>3005</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>13</v>
@@ -1158,22 +1135,21 @@
         <v>736</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="J28" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J28" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>1005</v>
@@ -1191,28 +1167,27 @@
         <v>327</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="J29" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J29" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>2005</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>13</v>
@@ -1224,28 +1199,27 @@
         <v>165</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I30" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="J30" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J30" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>3005</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>13</v>
@@ -1257,17 +1231,16 @@
         <v>736</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="J31" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J31" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,17 +1263,16 @@
         <v>327</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I32" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="J32" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J32" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1311,7 +1283,7 @@
         <v>2006</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>13</v>
@@ -1323,17 +1295,16 @@
         <v>165</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I33" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="J33" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J33" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1344,7 +1315,7 @@
         <v>3006</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>13</v>
@@ -1356,22 +1327,21 @@
         <v>736</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I34" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="J34" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J34" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>1006</v>
@@ -1389,28 +1359,27 @@
         <v>327</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="J35" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J35" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>2006</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
@@ -1422,28 +1391,27 @@
         <v>165</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I36" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="J36" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J36" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>3006</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>13</v>
@@ -1455,17 +1423,16 @@
         <v>736</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I37" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="J37" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J37" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,17 +1455,16 @@
         <v>327</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I38" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="J38" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J38" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,7 +1475,7 @@
         <v>2007</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>13</v>
@@ -1521,17 +1487,16 @@
         <v>165</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I39" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="J39" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J39" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1542,7 +1507,7 @@
         <v>3007</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>13</v>
@@ -1554,22 +1519,21 @@
         <v>736</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I40" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="J40" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J40" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>1007</v>
@@ -1587,28 +1551,27 @@
         <v>327</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I41" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="J41" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J41" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>2007</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>13</v>
@@ -1620,28 +1583,27 @@
         <v>165</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I42" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="J42" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J42" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>3007</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>13</v>
@@ -1653,17 +1615,16 @@
         <v>736</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I43" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="J43" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J43" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1686,17 +1647,16 @@
         <v>327</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I44" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="J44" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J44" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1707,7 +1667,7 @@
         <v>2008</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>13</v>
@@ -1719,17 +1679,16 @@
         <v>165</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="J45" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J45" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,7 +1699,7 @@
         <v>3008</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>13</v>
@@ -1752,22 +1711,21 @@
         <v>736</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I46" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="J46" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J46" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>1008</v>
@@ -1785,28 +1743,27 @@
         <v>327</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I47" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="J47" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J47" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>2008</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>13</v>
@@ -1818,28 +1775,27 @@
         <v>165</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I48" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="J48" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J48" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>3008</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>13</v>
@@ -1851,17 +1807,16 @@
         <v>736</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I49" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="J49" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J49" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,17 +1839,16 @@
         <v>327</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I50" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="J50" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J50" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1905,7 +1859,7 @@
         <v>2009</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>13</v>
@@ -1917,17 +1871,16 @@
         <v>165</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I51" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="J51" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J51" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,7 +1891,7 @@
         <v>3009</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>13</v>
@@ -1950,22 +1903,21 @@
         <v>736</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I52" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="J52" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J52" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>1009</v>
@@ -1983,28 +1935,27 @@
         <v>327</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I53" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="J53" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J53" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>2009</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>13</v>
@@ -2016,28 +1967,27 @@
         <v>165</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I54" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="J54" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J54" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>3009</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>13</v>
@@ -2049,17 +1999,16 @@
         <v>736</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I55" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="J55" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J55" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2082,17 +2031,16 @@
         <v>327</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="J56" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J56" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2103,7 +2051,7 @@
         <v>2010</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>13</v>
@@ -2115,17 +2063,16 @@
         <v>165</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I57" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="J57" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J57" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2136,7 +2083,7 @@
         <v>3010</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>13</v>
@@ -2148,22 +2095,21 @@
         <v>736</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I58" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="J58" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J58" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>1010</v>
@@ -2181,28 +2127,27 @@
         <v>327</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I59" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="J59" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J59" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>2010</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>13</v>
@@ -2214,28 +2159,27 @@
         <v>165</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I60" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="J60" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J60" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>3010</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>13</v>
@@ -2247,17 +2191,16 @@
         <v>736</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I61" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="J61" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J61" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,17 +2223,16 @@
         <v>327</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I62" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="J62" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J62" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2301,7 +2243,7 @@
         <v>2011</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>13</v>
@@ -2313,17 +2255,16 @@
         <v>165</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I63" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="J63" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J63" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2334,7 +2275,7 @@
         <v>3011</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>13</v>
@@ -2346,22 +2287,21 @@
         <v>736</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I64" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="J64" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J64" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>1011</v>
@@ -2379,28 +2319,27 @@
         <v>327</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I65" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="J65" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J65" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>2011</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>13</v>
@@ -2412,28 +2351,27 @@
         <v>165</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I66" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="J66" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J66" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>3011</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>13</v>
@@ -2445,17 +2383,16 @@
         <v>736</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I67" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="J67" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J67" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2478,17 +2415,16 @@
         <v>327</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I68" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="J68" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J68" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,7 +2435,7 @@
         <v>2012</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>13</v>
@@ -2511,17 +2447,16 @@
         <v>165</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I69" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="J69" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J69" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2532,7 +2467,7 @@
         <v>3012</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>13</v>
@@ -2544,22 +2479,21 @@
         <v>736</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I70" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="J70" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J70" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>1012</v>
@@ -2577,28 +2511,27 @@
         <v>327</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I71" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="J71" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J71" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>2012</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>13</v>
@@ -2610,28 +2543,27 @@
         <v>165</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I72" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="J72" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J72" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>3012</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>13</v>
@@ -2643,17 +2575,16 @@
         <v>736</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I73" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="J73" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J73" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
